--- a/homework/HW_2/Results.xlsx
+++ b/homework/HW_2/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gregj\Documents\GitHub\ME575\homework\HW_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DFFA737-84C9-44F9-8241-F55B239F4C75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BF5B92-F579-40BF-B74F-F646D0345D1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3458" yWindow="3877" windowWidth="16875" windowHeight="10523" xr2:uid="{1E352A3D-9963-4222-B64A-9645D8242A50}"/>
+    <workbookView xWindow="4358" yWindow="1575" windowWidth="16875" windowHeight="10523" xr2:uid="{1E352A3D-9963-4222-B64A-9645D8242A50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="16">
   <si>
     <t>Quadratic</t>
   </si>
@@ -47,9 +47,6 @@
     <t># Func Eval</t>
   </si>
   <si>
-    <t>Wall Time (s)</t>
-  </si>
-  <si>
     <t>CG</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>FMINUNC</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -124,12 +124,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFCBC99-797F-4E7D-8C00-7766C72830B2}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -476,28 +477,28 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="E1" s="3"/>
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="K1" s="3"/>
       <c r="M1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -505,14 +506,11 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>2</v>
@@ -520,31 +518,25 @@
       <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="M2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -553,22 +545,22 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O3">
         <v>2</v>
@@ -579,85 +571,85 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
+        <v>407</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>405</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>207</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>205</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="3"/>
       <c r="G7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="K7" s="3"/>
       <c r="M7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -665,29 +657,25 @@
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="E8" s="1"/>
+      <c r="G8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="3"/>
       <c r="M8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>2</v>
@@ -695,16 +683,14 @@
       <c r="P8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -713,22 +699,22 @@
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O9">
         <v>2</v>
@@ -739,85 +725,85 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
       <c r="G11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="3"/>
       <c r="G13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="K13" s="3"/>
       <c r="M13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -825,14 +811,12 @@
       <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="E14" s="1"/>
       <c r="G14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>2</v>
@@ -840,14 +824,12 @@
       <c r="J14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="K14" s="1"/>
       <c r="M14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>2</v>
@@ -855,16 +837,14 @@
       <c r="P14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>564</v>
@@ -873,22 +853,25 @@
         <v>12089</v>
       </c>
       <c r="G15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I15">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J15">
-        <v>97</v>
+        <v>156</v>
+      </c>
+      <c r="K15" t="s">
+        <v>15</v>
       </c>
       <c r="M15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O15">
         <v>9</v>
@@ -899,85 +882,85 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>896</v>
       </c>
       <c r="D16">
-        <v>21961</v>
+        <v>22857</v>
       </c>
       <c r="G16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I16">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J16">
-        <v>324</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>906</v>
       </c>
       <c r="D17">
-        <v>21319</v>
+        <v>22225</v>
       </c>
       <c r="G17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I17">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J17">
-        <v>219</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="3"/>
       <c r="G19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="K19" s="3"/>
       <c r="M19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
+      <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -985,14 +968,12 @@
       <c r="D20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="E20" s="1"/>
       <c r="G20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>2</v>
@@ -1000,14 +981,12 @@
       <c r="J20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="K20" s="1"/>
       <c r="M20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>2</v>
@@ -1015,16 +994,14 @@
       <c r="P20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21">
         <v>1851</v>
@@ -1033,22 +1010,22 @@
         <v>24070</v>
       </c>
       <c r="G21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I21">
         <v>152</v>
       </c>
       <c r="J21">
-        <v>842</v>
+        <v>994</v>
       </c>
       <c r="M21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O21">
         <v>149</v>
@@ -1059,34 +1036,34 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>2277</v>
       </c>
       <c r="D22">
-        <v>611651</v>
+        <v>613928</v>
       </c>
       <c r="G22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I22">
         <v>156</v>
       </c>
       <c r="J22">
-        <v>41041</v>
+        <v>41354</v>
       </c>
       <c r="M22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O22">
         <v>149</v>
@@ -1097,44 +1074,44 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>1850</v>
       </c>
       <c r="D23">
-        <v>260857</v>
+        <v>262707</v>
       </c>
       <c r="G23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I23">
         <v>152</v>
       </c>
       <c r="J23">
-        <v>20426</v>
+        <v>20731</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/homework/HW_2/Results.xlsx
+++ b/homework/HW_2/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gregj\Documents\GitHub\ME575\homework\HW_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BF5B92-F579-40BF-B74F-F646D0345D1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A583E4F-29D0-4414-A3A6-F0D1519241B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4358" yWindow="1575" windowWidth="16875" windowHeight="10523" xr2:uid="{1E352A3D-9963-4222-B64A-9645D8242A50}"/>
   </bookViews>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFCBC99-797F-4E7D-8C00-7766C72830B2}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
